--- a/metadata/fertilizer.xlsx
+++ b/metadata/fertilizer.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication/metadata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971D5509-1407-5C4C-9E8C-0FCB67445373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -458,13 +466,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -474,7 +481,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -492,18 +499,350 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -549,7 +888,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -572,7 +911,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -595,7 +934,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -618,7 +957,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -641,7 +980,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -664,7 +1003,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -687,7 +1026,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -710,7 +1049,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -733,7 +1072,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -756,7 +1095,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -779,7 +1118,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -802,7 +1141,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -825,7 +1164,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -848,7 +1187,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -871,7 +1210,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -894,7 +1233,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -917,7 +1256,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -940,7 +1279,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -963,7 +1302,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -986,7 +1325,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1348,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1371,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1394,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1417,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1440,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1463,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1486,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1509,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1532,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1555,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1578,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1601,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1624,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1647,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1670,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1693,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1716,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1739,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +1762,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1785,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1808,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1831,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1854,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1877,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1900,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1923,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1946,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1969,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1653,7 +1992,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +2015,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1699,7 +2038,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +2061,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1745,7 +2084,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1768,7 +2107,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1791,7 +2130,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1814,7 +2153,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1837,7 +2176,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1860,7 +2199,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1883,7 +2222,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1906,7 +2245,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1929,7 +2268,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1952,7 +2291,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1975,7 +2314,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1998,7 +2337,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2021,7 +2360,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2044,7 +2383,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2406,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2090,7 +2429,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2113,7 +2452,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2136,7 +2475,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2159,7 +2498,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2521,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2205,7 +2544,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2228,7 +2567,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2251,7 +2590,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2274,7 +2613,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2297,7 +2636,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +2659,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2343,7 +2682,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2366,7 +2705,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2728,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2751,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2435,7 +2774,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2481,7 +2820,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2504,7 +2843,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2527,7 +2866,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2550,7 +2889,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2573,7 +2912,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2596,7 +2935,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2619,7 +2958,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2642,7 +2981,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -2665,7 +3004,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -2688,7 +3027,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2711,7 +3050,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -2734,7 +3073,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -2757,7 +3096,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2780,7 +3119,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -2803,7 +3142,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -2826,7 +3165,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -2849,7 +3188,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -2872,7 +3211,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -2895,7 +3234,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -2918,7 +3257,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2941,7 +3280,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -2964,7 +3303,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -2987,7 +3326,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3010,7 +3349,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -3033,7 +3372,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -3056,7 +3395,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -3079,7 +3418,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -3102,7 +3441,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -3125,7 +3464,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -3148,7 +3487,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -3171,7 +3510,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -3194,7 +3533,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -3217,7 +3556,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -3240,7 +3579,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -3263,7 +3602,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3286,7 +3625,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -3309,7 +3648,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -3332,7 +3671,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -3355,7 +3694,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -3378,7 +3717,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -3401,7 +3740,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -3424,7 +3763,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -3447,7 +3786,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -3470,7 +3809,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -3493,7 +3832,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -3516,7 +3855,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -3539,7 +3878,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -3562,7 +3901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -3585,7 +3924,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -3608,7 +3947,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -3631,7 +3970,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -3654,7 +3993,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -3677,7 +4016,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -3700,7 +4039,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3723,7 +4062,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -3746,7 +4085,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -3769,7 +4108,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -3792,7 +4131,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -3815,7 +4154,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -3838,7 +4177,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -3861,7 +4200,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -3884,7 +4223,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -3907,7 +4246,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -3930,7 +4269,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -3953,7 +4292,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -3976,7 +4315,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -3999,7 +4338,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -4022,7 +4361,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -4045,7 +4384,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -4068,7 +4407,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -4091,7 +4430,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -4114,7 +4453,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -4137,7 +4476,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -4160,7 +4499,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -4183,7 +4522,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -4206,7 +4545,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -4229,7 +4568,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -4252,7 +4591,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -4275,7 +4614,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -4298,7 +4637,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -4321,7 +4660,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -4344,7 +4683,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -4367,7 +4706,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -4390,7 +4729,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -4413,7 +4752,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -4436,7 +4775,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -4459,7 +4798,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -4482,7 +4821,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -4505,7 +4844,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -4528,7 +4867,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -4551,7 +4890,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -4574,7 +4913,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -4597,7 +4936,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -4620,7 +4959,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -4643,7 +4982,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -4666,7 +5005,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -4689,7 +5028,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -4712,7 +5051,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -4735,7 +5074,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -4758,7 +5097,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -4781,7 +5120,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -4804,7 +5143,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -4827,7 +5166,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -4850,7 +5189,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -4873,7 +5212,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -4896,7 +5235,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -4919,7 +5258,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -4942,7 +5281,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -4965,7 +5304,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -4988,7 +5327,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -5011,7 +5350,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -5034,7 +5373,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>12</v>
       </c>
@@ -5057,7 +5396,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -5080,7 +5419,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -5103,7 +5442,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -5126,7 +5465,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>12</v>
       </c>
@@ -5149,7 +5488,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -5172,7 +5511,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -5195,7 +5534,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>12</v>
       </c>
@@ -5218,7 +5557,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -5241,7 +5580,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -5264,7 +5603,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -5287,7 +5626,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -5310,7 +5649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>12</v>
       </c>
@@ -5333,7 +5672,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -5356,7 +5695,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -5379,7 +5718,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -5402,7 +5741,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>12</v>
       </c>
@@ -5425,7 +5764,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>12</v>
       </c>
@@ -5448,7 +5787,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -5471,7 +5810,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -5494,7 +5833,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>12</v>
       </c>
@@ -5517,7 +5856,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -5540,7 +5879,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -5563,7 +5902,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -5586,7 +5925,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -5609,7 +5948,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -5632,7 +5971,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>12</v>
       </c>
@@ -5655,7 +5994,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>12</v>
       </c>
@@ -5678,7 +6017,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -5701,7 +6040,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -5724,7 +6063,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>12</v>
       </c>
@@ -5747,7 +6086,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -5770,7 +6109,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>12</v>
       </c>
@@ -5793,7 +6132,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -5816,7 +6155,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -5839,7 +6178,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -5862,7 +6201,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>12</v>
       </c>
@@ -5885,7 +6224,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>12</v>
       </c>
@@ -5908,7 +6247,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -5931,7 +6270,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -5954,7 +6293,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -5977,7 +6316,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>12</v>
       </c>
@@ -6001,6 +6340,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>